--- a/UTTERANCESHWLW.xlsx
+++ b/UTTERANCESHWLW.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="612">
   <si>
     <t>Current State</t>
   </si>
@@ -895,30 +895,9 @@
     <t>&lt;gaze(player|playerID|)&gt; Eh pá, renúncias a esta hora? Não tenho tempo para isso</t>
   </si>
   <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Bora lá parceiro, tens a minha confiança absoluta&lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy4)&gt;  Agora é que é companheiro, jogues o que jogares vou sempre gostar de te ter na minha equipa &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
     <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy5)&gt; Que orgulho em te ter na minha equipa &lt;gaze(player|nextPlayerID|)&gt;</t>
   </si>
   <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Confio em ti para fazeres uma boa jogada companheiro das cartas &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy4)&gt;  Nunca me desiludiste até agora, tenho a certeza que não vais começar agora! Bora lá, confio em ti! &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy5)&gt; Quem me dera jogar tão bem quanto tu, joga lá, para eu poder aprender umas coisas contigo &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Conhecendo como te conheço, de certeza que vai sair daí uma jogada brilhante&lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy4)&gt; Siga amigo, sabes que tens a minha confiança &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
     <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness2)&gt;Oh, não estou a gostar que isto nos esteja a correr mal amigo.  &lt;gaze(player|nextPlayerID|)&gt;</t>
   </si>
   <si>
@@ -1093,9 +1072,6 @@
     <t>&lt;gaze(player|nextPlayerID|)&gt; Vamos! Quero ver o que é que vai sair daí</t>
   </si>
   <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness4)&gt; Caramba, isto tem mesmo que mudar. Se não começarmos a jogar bem, não vamos a lado nenhum &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
     <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness5)&gt; Estamos a fazer um jogo muito fraco, vê lá se tomas mais atenção &lt;gaze(player|nextPlayerID|)&gt;</t>
   </si>
   <si>
@@ -1123,24 +1099,6 @@
     <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Temos uma estratégia vencedora, é bom que não te desvies dela &lt;gaze(player|nextPlayerID|)&gt;</t>
   </si>
   <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Vê se jogas melhor, o meu objetivo não é ganhar, é levar todos os pontos&lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy1)&gt; Bora, não tenho o dia todo &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt;Joga e não me desiludas! &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Estamos no bom caminho, é bom que não estragues tudo com a tua jogada&lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy1)&gt; Já estamos a ganhar, vê lá se não nos estragas o jogo com a tua próxima jogada &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Concentração,  não dês agora cabo das nossas chances de ganhar&lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
     <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness3)&gt; Bem, algo tem de mudar na estratégia da nossa equipa porque assim não estou a gostar&lt;gaze(player|nextPlayerID|)&gt;</t>
   </si>
   <si>
@@ -1279,15 +1237,6 @@
     <t>&lt;gaze(player|nextPlayerId|)&gt; Não penses tanto.</t>
   </si>
   <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Não temos o tempo todo.</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Meu caro, é para hoje?</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Creio que és tu...</t>
-  </si>
-  <si>
     <t>&lt;gaze(player|nextPlayerId|)&gt; Anda, senão adormecemos...</t>
   </si>
   <si>
@@ -1300,228 +1249,12 @@
     <t>&lt;gaze(player|nextPlayerId|)&gt; De facto deve ser difícil escolher...  quando se vai perder.</t>
   </si>
   <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; É a tua vez!</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; És tu!</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; És tu a jogar amigo</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; É a tua vez! Bora lá, mestre da sueca</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; É a tua vez, mostra-nos como se faz!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;gaze(player|nextPlayerId|)&gt; És tu, força! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;gaze(player|nextPlayerId|)&gt; És tu a jogar! </t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; És tu, bora lá!</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Ainda não sabes o que vais jogar?</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Estás indeciso entre duas cartas?</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; É a vez de quem agora? Já me esqueci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;gaze(player|nextPlayerId|)&gt; Quanto mais depressa jogares, mais depressa eu te ganho! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;gaze(player|nextPlayerId|)&gt; Quer jogues já, quer jogues daqui a bocado, vou ganhar na mesma! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;gaze(player|nextPlayerId|)&gt; Sim sim, és tu a perder. á-i, a jogar quero eu dizer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;gaze(player|nextPlayerId|)&gt; Jogues o que jogares, nós vamos ganhar </t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Não sei porque é que estás a pensar tanto, o jogo já está perdido para ti</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Que chatice! Estar à espera que os outros joguem tira logo a piada toda ao jogo</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Rápido, quanto mais pensares, mais tempo eu demoro a ganhar</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Joga bem, mas deixa alguns pontos para mim e para o meu parceiro</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Agora é a vez do nosso adversário jogar, mas não te preocupes parceiro, estamos no bom caminho</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Bem, estou com medo do que o nosso adversário vai jogar</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Hum… O que irá sair dali, parceiro?</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Estou ansioso pela próxima jogada, amigo</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Joga</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Não és tu agora a jogar?</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Será que o nosso adversário está a pensar ou ainda não se apercebeu que é a vez dele jogar?</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Cámone</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Não sabes o que hás-de jogar?</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; O que é que está a demorar tanto tempo, caro adversário?</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Penso que deixámos o nosso adversário sem saber o que fazer..</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; És tu</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Vamos lá, joga!</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Estás indeciso sobre que carta jogar?</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Esta jogada é uma escolha dificil?</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Sinto o nervosismo a começar a acumular</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Vamos, agora está na tua vez</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Nem penses que nos vais ganhar, mas joga lá</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Não estás à minha altura, mas deixa lá ver o que vai sair daí</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Eu quero é despachar isto, vamos lá</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Tanto tempo para quê?</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Não tenho o dia todo, vamos lá a despachar isso.</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; És tu a jogar agora</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Ainda não percebeste que és tu a jogar?</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; É a tua vez</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Espero que te sintas nervoso por estares a jogar com adversários tão fortes como nós</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Se eu estivesse no teu lugar, também sentiria medo por estar a jogar contra mim</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Estás à espera de quê? Joga!</t>
-  </si>
-  <si>
     <t>&lt;gaze(player|nextPlayerId|)&gt; Jogada a jogada, mais perto da vossa derrota</t>
   </si>
   <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; És tu que tens de jogar agora. É melhor que não me faças esperar muito.</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; És tu agora</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Vá, é a tua vez de jogar</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Ainda vai demorar muito?</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Agora és tu amigo, já sei que vais jogar como um profissional &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Jogues o que jogares, ninguém te vai julgar parceiro &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; É a tua vez parceiro, vai correr bem &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; És tu colega &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Essa espera é para fazer os nossos oponentes ficarem nervosos? &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Joga amigo, é a tua vez&lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; És tu parceiro das cartas &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Não fiques nervoso amigo, joga lá essa cartita &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Vamos parceiro, agora é a tua vez de jogar &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Anda lá companheiro, estou deserto para ver o que vais jogar &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness2)&gt; Mesmo que essa jogada corra mal, vou estar sempre aqui para te apoiar &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Este jogo já está no papo, companheiro. És tu a jogar! &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Anda lá companheiro, és tu a jogar.&lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Se jogares como tens jogado até agora não há probema amigo das cartas &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; És tu a jogar parceiro, não te sintas pressionado&lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
     <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Bora parceiro. Estou a gostar muito de jogar contigo &lt;gaze(player|nextPlayerID|)&gt;</t>
   </si>
   <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Isto está a correr mesmo bem para nós amigo. És tu a jogar. &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Parceiro, agora és tu! &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt;Agora é o meu parceiro a jogar. Vejam e aprendam! &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; É um orgulho estar na tua equipa amigo, joga!&lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Joga lá parceiro! &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Estamos no bom caminho, amigo. Joga como tens jogado. &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
     <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness4)&gt; Não estou a gostar nada disto. &lt;gaze(player|nextPlayerID|)&gt;</t>
   </si>
   <si>
@@ -1540,54 +1273,15 @@
     <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness4)&gt; Assim vamos perder, vá lá, presta atenção… &lt;gaze(player|nextPlayerID|)&gt;</t>
   </si>
   <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness4)&gt; És tu, mas joga bem desta vez&lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness5)&gt; Tanto tempo para jogar… É melhor que saia daí alguma coisa de jeito &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness5)&gt;Parceiro, é melhor que este tempo de espera valha a pena... &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness5)&gt; Sabes que és tu a jogar?&lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness5)&gt; Joga e joga bem. &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
     <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Os nossos oponentes ainda acham que têm hipóteses de ganhar… Coitadinhos … &lt;gaze(player|nextPlayerID|)&gt;</t>
   </si>
   <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Joga lá, e nem te atrevas a jogar uma má carta. &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; És tu a jogar, não te esquecas que tens de jogar bem&lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
     <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Isto já está quase ganho parceiro, não estragues as nossas hipóteses de ganhar&lt;gaze(player|nextPlayerID|)&gt;</t>
   </si>
   <si>
     <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Atenção! Estás a jogar comigo portanto já sabes que é melhor jogares bem&lt;gaze(player|nextPlayerID|)&gt;</t>
   </si>
   <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Joga lá colega, tenho mais que fazer… &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt;És tu a jogar, estás à espera de quê?&lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Bora lá, é a tua vez...&lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; És tu a jogar, por favor não me desiludas &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Concentração,   joga parceiro&lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Estamos a dar um espétáculo.. Não me desiludas agora, joga &lt;gaze(player|nextPlayerID|)&gt;</t>
-  </si>
-  <si>
     <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness3)&gt; Perdemos? Que vergonha</t>
   </si>
   <si>
@@ -1852,22 +1546,340 @@
     <t>&lt;gaze(player|playerID|)&gt; Bora companheiro, está na tua vez.</t>
   </si>
   <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Agora é a vez do nosso adversário jogar</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Agora quero ver como se vai sair o nosso oponente</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; É a vez do nosso oponente agora! Vamos ver como ele se vai sair</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; Isto está mau para estes lados, joga lá</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt;Vá, joga rápido</t>
-  </si>
-  <si>
-    <t>&lt;gaze(player|nextPlayerId|)&gt; É a tua vez de jogar, espero que falhes esta</t>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; As tuas jogadas nunca me desiludem</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Fazes magia com as cartas parceiro</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Espétacular!</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt;Já estava à espera que jogasses mal</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Com vocês a jogarem assim, nem me preciso de esforçar para ganhar</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Vocês nem dão luta</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Os nossos adversários jogam bem, temos de nos esforçar parceiro</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Bora colega, o nosso oponente já jogou</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Esta jogada pode não ter sido boa para nós, mas à mesma gosto de jogar contigo</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Isto está mau para estes lados</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt;De certeza que estão a fazer batota</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; pensas que me assustas com essa jogada, mas eu não tenho medo de nada</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Boa parceiro, tens a minha confiança absoluta&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy4)&gt;  Independentemente do jogo nos correr bem ou mal, vou sempre gostar de te ter na minha equipa &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Confio em ti  companheiro das cartas &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy4)&gt;  Nunca me desiludiste até agora, és mesmo um bom parceiro! &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy5)&gt; Quem me dera jogar tão bem quanto tu, parceiro &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Uáu, sempre a fazer jogadas brilhantes&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy4)&gt; Boa colega, a minha confiança em ti é merecida &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness4)&gt; Acho que vou trocar de equipa se continuares a jogar assim &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Vê se jogas melhor, o meu objetivo não é só  ganhar, é levar todos os pontos&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy1)&gt; Se soubesse que jogavas assim, não tinha querido jogar contigo &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Agora não me desiludiste, boa!&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Estamos no bom caminho, vê lá se não estragas tudo &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy1)&gt; Esta jogada foi boa, é melhor que continues assim &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Concentração,  fazer uma boa jogada não chega, tens de fazer um bom jogo&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Boa amigo! Que orgulhoso que estou de ti</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; És um verdadeiro profissional da sueca</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Uáu, boa jogada. Estou sempre a aprender com a tua forma de jogar companheiro</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; O meu parceiro nunca me desilude</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Eh lá... Onde aprendeste a jogar tão bem?</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Boa colega</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Grande jogada, sim senhor</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Assim é que se joga colega. Ainda bem que estás na minha equipa</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; assim joga uma boa equipa de sueca</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Não estava, à espera desta pois não? Ah pois é, não podia ser outra coisa, vinda dos melhores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;gaze(player|nextPlayerId|)&gt; Tomem lá esta! </t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Já estou farto de jogar contigo.</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Quem me dera que jogasses sempre assim</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Que chatice, este jogo nunca mais acaba</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Nem pensem em tentar fazer-me frente</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Se fosse a vocês desistia já</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Ena parceiro, não foi uma jogada muito boa para o nosso lado, mas não faz mal</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt;Hum... Esta jogada dificulta um bocadinho as coisas... Mas assim é que eu gosto</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Isto está a ser giro</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Estou a ver que temos oponentes à altura</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Gostava de poder jogar com vocês todos os dias</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Jogar com oponentes assim vale a pena, não achas parceiro?</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Parceiro, espero que te estejas a divertir</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Amigo, és o meu companheiro de sueca favorito</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Olha, esta jogada dificultou um bocadinho as coisas para a nossa equipa... Mas à mesma estou a adorar jogar contigo</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; De shou mast gou ón</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Fazemos uma boa equipa parceiro, mas temos de ter cuidado a jogar contra oponentes tão habilidosos</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt;Desta não estava eu à espera</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Confio na nossa equipa, por mais dificil que fique o jogo</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Os nossos adversários dão luta... Não pensei que fosse tão dificil</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; O jogo ainda não está decidido amigo</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; A esperança é a última a morrer companheiro!</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; O truque não está nas cartas, está em ter um bom parceiro.</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt;Somos mesmo fixes amigo! Bora lá dar a volta ao jogo!</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Hum... E agora parceiro? De certeza que me vais ajudar</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Isso foi batota e eu não gosto de batoteiros</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Não gostei dessa jogada</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Não estás à minha altura, mesmo com jogadas dessas</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; espera sentado que eu já te vou roubar ainda mais pontos</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Vou-te tirar ainda mais pontos do que aqueles que me tiraste com essa jogada</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Acho que é melhor trocar de equipa</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt;Quero esses pontos de volta, isto não é justo</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; que vergonha</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Assim não gosto de jogar</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Levas esses pontos, mas não levas mais nenhuns, ouviste?</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt;Perdi a batalha, mas não perdi a guerra... Já vão ver</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt;Estás a deixar o deus da sueca furioso!</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Não gostei</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Nem acredito que vão levar esses pontos.</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Batotaa!</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Nem pensem em tirar-me mais pontos. Vão-se arrepender</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|nextPlayerId|)&gt; Nunca mais quero voltar a jogar com vocês</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness2)&gt; Não faz mal colega... Estou sempre aqui para te apoiar &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt;Incrível! Jogas que nem um profissional &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Quem me dera jogar tão bem quanto tu amigo &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Estou tão feliz com essa jogada que só me apetece abraçar-te &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Epa colega, és o cristiano ronaldo da sueca... Sempre a marcar &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Acho que nunca conheci ninguém que jogasse tão bem &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Quem me dera ter filmado esta jogada para reviver este momento&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt;Lindo &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Mesmo que não jogues sempre bem, eu gosto sempre de ti &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Adoro a nossa equipa &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Essa jogada pode não ter sido muito boa... Mas não faz mal, é com os erros que se aprende&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Este jogo já está no papo, companheiro. &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Genial, companheiro... Simplesmente genial.&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Oops, havemos de recuperar estes pontos perdidos facilmente &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Se há equipa que consegue recuperar depois desta jogada menos boa, é a nossa companheiro&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Isto está a correr mesmo bem para nós amigo. &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Só me dás alegrias! &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt;Vejam e aprendam! Esta jogada foi pura magia &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; É um orgulho estar na tua equipa amigo!&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Boa, boa! &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy3)&gt; Estamos no bom caminho, amigo. Continua a fazer jogadas dessas. &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness4)&gt; Se continuares a jogar assim, nunca mais volto a jogar contigo&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness5)&gt; Tanto tempo para jogar… E nem consegues fazer uma jogada de jeito &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness5)&gt;Que tristeza de jogada esta...&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness5)&gt; Mau maria...&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(sadness5)&gt;Mas tu estás a fazer de propósito para perder? &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Desta vez não me desiludist &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Vês não é dificil? Vê lá se continuas a jogar bem, já que agora lhe ganhaste o jeito&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Jogaste bem, mas ainda tens muito que aprender &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt;Essa jogada aprendeste comigo, de certeza&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Assim não estás a ir mal...&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; É melhor continuares assim, se queres continuar a jogar comigo &lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Concentração&lt;gaze(player|nextPlayerID|)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gaze(player|playerID|)&gt; &lt;animate(joy2)&gt; Estamos a dar um espétáculo.. Não me desiludas&lt;gaze(player|nextPlayerID|)&gt;</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2429,8 +2441,8 @@
   <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E581" sqref="E581"/>
+      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D525" sqref="D525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2764,7 +2776,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>514</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2781,7 +2793,7 @@
         <v>30</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>515</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3767,7 +3779,7 @@
         <v>28</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3784,7 +3796,7 @@
         <v>28</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>427</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3801,7 +3813,7 @@
         <v>28</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3818,7 +3830,7 @@
         <v>31</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>433</v>
+        <v>503</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3835,7 +3847,7 @@
         <v>31</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3852,7 +3864,7 @@
         <v>31</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3869,7 +3881,7 @@
         <v>27</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>602</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3886,7 +3898,7 @@
         <v>27</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>603</v>
+        <v>507</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3903,7 +3915,7 @@
         <v>27</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>604</v>
+        <v>508</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3920,7 +3932,7 @@
         <v>32</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>605</v>
+        <v>509</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3937,7 +3949,7 @@
         <v>32</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>606</v>
+        <v>510</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3954,7 +3966,7 @@
         <v>32</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>607</v>
+        <v>511</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="13" customFormat="1">
@@ -4634,7 +4646,7 @@
         <v>30</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>516</v>
+        <v>414</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4651,7 +4663,7 @@
         <v>30</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>517</v>
+        <v>415</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4668,7 +4680,7 @@
         <v>30</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>518</v>
+        <v>416</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4685,7 +4697,7 @@
         <v>30</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>519</v>
+        <v>417</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4719,7 +4731,7 @@
         <v>30</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>520</v>
+        <v>418</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4736,7 +4748,7 @@
         <v>30</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>521</v>
+        <v>419</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4753,7 +4765,7 @@
         <v>30</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>522</v>
+        <v>420</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4770,7 +4782,7 @@
         <v>30</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>523</v>
+        <v>421</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5382,7 +5394,7 @@
         <v>29</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="13" customFormat="1">
@@ -5722,7 +5734,7 @@
         <v>28</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5739,7 +5751,7 @@
         <v>28</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5756,7 +5768,7 @@
         <v>30</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5858,7 +5870,7 @@
         <v>31</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5943,7 +5955,7 @@
         <v>31</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="207" spans="1:5" s="13" customFormat="1">
@@ -6691,7 +6703,7 @@
         <v>28</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>283</v>
+        <v>512</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6708,7 +6720,7 @@
         <v>28</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>284</v>
+        <v>513</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6725,7 +6737,7 @@
         <v>28</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6742,7 +6754,7 @@
         <v>28</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>286</v>
+        <v>514</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6759,7 +6771,7 @@
         <v>28</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>287</v>
+        <v>515</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6776,7 +6788,7 @@
         <v>28</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>288</v>
+        <v>516</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6793,7 +6805,7 @@
         <v>28</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>289</v>
+        <v>517</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6810,7 +6822,7 @@
         <v>28</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>290</v>
+        <v>518</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6827,7 +6839,7 @@
         <v>27</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6844,7 +6856,7 @@
         <v>27</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6861,7 +6873,7 @@
         <v>27</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6878,7 +6890,7 @@
         <v>27</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6895,7 +6907,7 @@
         <v>27</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6912,7 +6924,7 @@
         <v>27</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6929,7 +6941,7 @@
         <v>27</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6946,7 +6958,7 @@
         <v>28</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6963,7 +6975,7 @@
         <v>28</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6980,7 +6992,7 @@
         <v>28</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6997,7 +7009,7 @@
         <v>28</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7014,7 +7026,7 @@
         <v>28</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7031,7 +7043,7 @@
         <v>28</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7048,7 +7060,7 @@
         <v>28</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7065,7 +7077,7 @@
         <v>28</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7082,7 +7094,7 @@
         <v>28</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7099,7 +7111,7 @@
         <v>27</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7116,7 +7128,7 @@
         <v>27</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7133,7 +7145,7 @@
         <v>27</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7150,7 +7162,7 @@
         <v>27</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7167,7 +7179,7 @@
         <v>27</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7184,7 +7196,7 @@
         <v>27</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7201,7 +7213,7 @@
         <v>27</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7218,7 +7230,7 @@
         <v>28</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7235,7 +7247,7 @@
         <v>28</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7252,7 +7264,7 @@
         <v>28</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7269,7 +7281,7 @@
         <v>28</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7286,7 +7298,7 @@
         <v>28</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7303,7 +7315,7 @@
         <v>28</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="287" spans="1:5" s="13" customFormat="1">
@@ -7314,13 +7326,13 @@
         <v>6</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D287" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E287" s="15" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="288" spans="1:5" s="13" customFormat="1">
@@ -7331,13 +7343,13 @@
         <v>6</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E288" s="10" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="289" spans="1:5" s="13" customFormat="1">
@@ -7348,13 +7360,13 @@
         <v>6</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E289" s="10" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="290" spans="1:5" s="13" customFormat="1">
@@ -7365,13 +7377,13 @@
         <v>6</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E290" s="10" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="291" spans="1:5" s="13" customFormat="1" ht="28">
@@ -7382,13 +7394,13 @@
         <v>6</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E291" s="10" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="292" spans="1:5" s="13" customFormat="1">
@@ -7399,13 +7411,13 @@
         <v>6</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E292" s="10" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="293" spans="1:5" s="13" customFormat="1">
@@ -7416,13 +7428,13 @@
         <v>6</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E293" s="10" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="294" spans="1:5" s="13" customFormat="1">
@@ -7433,13 +7445,13 @@
         <v>6</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D294" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E294" s="10" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="295" spans="1:5" s="13" customFormat="1">
@@ -7450,13 +7462,13 @@
         <v>6</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="296" spans="1:5" s="13" customFormat="1">
@@ -7467,13 +7479,13 @@
         <v>6</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="297" spans="1:5" s="13" customFormat="1">
@@ -7484,13 +7496,13 @@
         <v>6</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="298" spans="1:5" s="13" customFormat="1">
@@ -7501,13 +7513,13 @@
         <v>6</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="299" spans="1:5" s="13" customFormat="1">
@@ -7518,13 +7530,13 @@
         <v>6</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="300" spans="1:5" s="13" customFormat="1" ht="28">
@@ -7535,13 +7547,13 @@
         <v>6</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="301" spans="1:5" s="13" customFormat="1">
@@ -7552,13 +7564,13 @@
         <v>6</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="302" spans="1:5" s="13" customFormat="1">
@@ -7569,13 +7581,13 @@
         <v>6</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D302" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="303" spans="1:5" s="13" customFormat="1">
@@ -7586,13 +7598,13 @@
         <v>6</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D303" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="304" spans="1:5" s="13" customFormat="1">
@@ -7603,13 +7615,13 @@
         <v>6</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="305" spans="1:5" s="13" customFormat="1">
@@ -7620,13 +7632,13 @@
         <v>6</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D305" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="306" spans="1:5" s="13" customFormat="1">
@@ -7637,13 +7649,13 @@
         <v>6</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E306" s="9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="307" spans="1:5" s="13" customFormat="1">
@@ -7654,13 +7666,13 @@
         <v>6</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D307" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="308" spans="1:5" s="13" customFormat="1">
@@ -7671,13 +7683,13 @@
         <v>6</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D308" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E308" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7694,7 +7706,7 @@
         <v>32</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>349</v>
+        <v>519</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7711,7 +7723,7 @@
         <v>32</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7728,7 +7740,7 @@
         <v>32</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -7745,7 +7757,7 @@
         <v>32</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -7762,7 +7774,7 @@
         <v>32</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7779,7 +7791,7 @@
         <v>32</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -7796,7 +7808,7 @@
         <v>32</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7813,7 +7825,7 @@
         <v>32</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7830,7 +7842,7 @@
         <v>31</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -7847,7 +7859,7 @@
         <v>31</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7864,7 +7876,7 @@
         <v>31</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>359</v>
+        <v>520</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7881,7 +7893,7 @@
         <v>31</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>360</v>
+        <v>521</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -7898,7 +7910,7 @@
         <v>31</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>361</v>
+        <v>522</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7915,7 +7927,7 @@
         <v>31</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>362</v>
+        <v>523</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7932,7 +7944,7 @@
         <v>31</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>363</v>
+        <v>524</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7949,7 +7961,7 @@
         <v>31</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>364</v>
+        <v>525</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7966,7 +7978,7 @@
         <v>32</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7983,7 +7995,7 @@
         <v>32</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8000,7 +8012,7 @@
         <v>32</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8017,7 +8029,7 @@
         <v>32</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8034,7 +8046,7 @@
         <v>32</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8051,7 +8063,7 @@
         <v>32</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8068,7 +8080,7 @@
         <v>32</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8085,7 +8097,7 @@
         <v>32</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8102,7 +8114,7 @@
         <v>31</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8119,7 +8131,7 @@
         <v>31</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8136,7 +8148,7 @@
         <v>31</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8153,7 +8165,7 @@
         <v>31</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8170,7 +8182,7 @@
         <v>31</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8187,7 +8199,7 @@
         <v>31</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8204,7 +8216,7 @@
         <v>31</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8221,7 +8233,7 @@
         <v>31</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8238,7 +8250,7 @@
         <v>31</v>
       </c>
       <c r="E341" s="6" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8255,7 +8267,7 @@
         <v>30</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8272,7 +8284,7 @@
         <v>30</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8289,7 +8301,7 @@
         <v>30</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8306,7 +8318,7 @@
         <v>30</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8323,7 +8335,7 @@
         <v>30</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8340,7 +8352,7 @@
         <v>30</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8357,7 +8369,7 @@
         <v>31</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8374,7 +8386,7 @@
         <v>31</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8391,7 +8403,7 @@
         <v>31</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8408,7 +8420,7 @@
         <v>31</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8425,7 +8437,7 @@
         <v>31</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="353" spans="1:5" s="13" customFormat="1">
@@ -8442,7 +8454,7 @@
         <v>26</v>
       </c>
       <c r="E353" s="17" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="354" spans="1:5" s="13" customFormat="1">
@@ -8459,7 +8471,7 @@
         <v>26</v>
       </c>
       <c r="E354" s="17" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="355" spans="1:5" s="13" customFormat="1">
@@ -8476,7 +8488,7 @@
         <v>26</v>
       </c>
       <c r="E355" s="17" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="356" spans="1:5" s="13" customFormat="1">
@@ -8493,7 +8505,7 @@
         <v>26</v>
       </c>
       <c r="E356" s="17" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="357" spans="1:5" s="13" customFormat="1">
@@ -8510,7 +8522,7 @@
         <v>26</v>
       </c>
       <c r="E357" s="17" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="358" spans="1:5" s="13" customFormat="1">
@@ -8527,7 +8539,7 @@
         <v>26</v>
       </c>
       <c r="E358" s="17" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="359" spans="1:5" s="13" customFormat="1">
@@ -8544,7 +8556,7 @@
         <v>26</v>
       </c>
       <c r="E359" s="17" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="360" spans="1:5" s="13" customFormat="1">
@@ -8561,7 +8573,7 @@
         <v>26</v>
       </c>
       <c r="E360" s="17" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="361" spans="1:5" s="13" customFormat="1">
@@ -8578,7 +8590,7 @@
         <v>26</v>
       </c>
       <c r="E361" s="17" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="362" spans="1:5" s="13" customFormat="1">
@@ -8595,7 +8607,7 @@
         <v>26</v>
       </c>
       <c r="E362" s="17" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="363" spans="1:5" s="13" customFormat="1">
@@ -8612,7 +8624,7 @@
         <v>26</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="364" spans="1:5" s="13" customFormat="1">
@@ -8629,7 +8641,7 @@
         <v>29</v>
       </c>
       <c r="E364" s="18" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="365" spans="1:5" s="13" customFormat="1">
@@ -8646,7 +8658,7 @@
         <v>29</v>
       </c>
       <c r="E365" s="18" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="366" spans="1:5" s="13" customFormat="1">
@@ -8663,7 +8675,7 @@
         <v>29</v>
       </c>
       <c r="E366" s="18" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="367" spans="1:5" s="13" customFormat="1">
@@ -8680,7 +8692,7 @@
         <v>29</v>
       </c>
       <c r="E367" s="18" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="368" spans="1:5" s="13" customFormat="1">
@@ -8697,7 +8709,7 @@
         <v>29</v>
       </c>
       <c r="E368" s="18" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="369" spans="1:5" s="13" customFormat="1">
@@ -8714,7 +8726,7 @@
         <v>29</v>
       </c>
       <c r="E369" s="18" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="370" spans="1:5" s="13" customFormat="1">
@@ -8731,7 +8743,7 @@
         <v>29</v>
       </c>
       <c r="E370" s="18" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="371" spans="1:5" s="13" customFormat="1">
@@ -8748,7 +8760,7 @@
         <v>29</v>
       </c>
       <c r="E371" s="18" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="372" spans="1:5" s="13" customFormat="1">
@@ -8765,7 +8777,7 @@
         <v>29</v>
       </c>
       <c r="E372" s="18" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
     </row>
     <row r="373" spans="1:5" s="13" customFormat="1" ht="28">
@@ -8782,7 +8794,7 @@
         <v>29</v>
       </c>
       <c r="E373" s="18" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="374" spans="1:5" s="13" customFormat="1">
@@ -8799,7 +8811,7 @@
         <v>29</v>
       </c>
       <c r="E374" s="18" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -8816,7 +8828,7 @@
         <v>28</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>420</v>
+        <v>526</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -8833,7 +8845,7 @@
         <v>28</v>
       </c>
       <c r="E376" s="10" t="s">
-        <v>421</v>
+        <v>527</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -8850,7 +8862,7 @@
         <v>28</v>
       </c>
       <c r="E377" s="11" t="s">
-        <v>422</v>
+        <v>528</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -8867,7 +8879,7 @@
         <v>28</v>
       </c>
       <c r="E378" s="11" t="s">
-        <v>418</v>
+        <v>529</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -8884,7 +8896,7 @@
         <v>28</v>
       </c>
       <c r="E379" s="10" t="s">
-        <v>423</v>
+        <v>530</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -8901,7 +8913,7 @@
         <v>28</v>
       </c>
       <c r="E380" s="11" t="s">
-        <v>425</v>
+        <v>531</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8918,7 +8930,7 @@
         <v>28</v>
       </c>
       <c r="E381" s="11" t="s">
-        <v>419</v>
+        <v>532</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8935,10 +8947,10 @@
         <v>28</v>
       </c>
       <c r="E382" s="10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" ht="28">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
       <c r="A383" s="6" t="s">
         <v>25</v>
       </c>
@@ -8952,10 +8964,10 @@
         <v>31</v>
       </c>
       <c r="E383" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="28">
       <c r="A384" s="6" t="s">
         <v>25</v>
       </c>
@@ -8969,7 +8981,7 @@
         <v>31</v>
       </c>
       <c r="E384" s="10" t="s">
-        <v>411</v>
+        <v>535</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8986,7 +8998,7 @@
         <v>31</v>
       </c>
       <c r="E385" s="10" t="s">
-        <v>412</v>
+        <v>536</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9003,7 +9015,7 @@
         <v>31</v>
       </c>
       <c r="E386" s="10" t="s">
-        <v>413</v>
+        <v>537</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9020,7 +9032,7 @@
         <v>31</v>
       </c>
       <c r="E387" s="10" t="s">
-        <v>429</v>
+        <v>538</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9037,7 +9049,7 @@
         <v>31</v>
       </c>
       <c r="E388" s="10" t="s">
-        <v>430</v>
+        <v>539</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9054,7 +9066,7 @@
         <v>31</v>
       </c>
       <c r="E389" s="10" t="s">
-        <v>431</v>
+        <v>540</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9071,7 +9083,7 @@
         <v>31</v>
       </c>
       <c r="E390" s="10" t="s">
-        <v>432</v>
+        <v>541</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9088,7 +9100,7 @@
         <v>27</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>399</v>
+        <v>542</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9105,7 +9117,7 @@
         <v>27</v>
       </c>
       <c r="E392" s="6" t="s">
-        <v>436</v>
+        <v>543</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9122,7 +9134,7 @@
         <v>27</v>
       </c>
       <c r="E393" s="6" t="s">
-        <v>437</v>
+        <v>544</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9139,7 +9151,7 @@
         <v>27</v>
       </c>
       <c r="E394" s="6" t="s">
-        <v>438</v>
+        <v>545</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9156,7 +9168,7 @@
         <v>27</v>
       </c>
       <c r="E395" s="6" t="s">
-        <v>439</v>
+        <v>546</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9173,7 +9185,7 @@
         <v>27</v>
       </c>
       <c r="E396" s="6" t="s">
-        <v>440</v>
+        <v>547</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9190,7 +9202,7 @@
         <v>27</v>
       </c>
       <c r="E397" s="6" t="s">
-        <v>441</v>
+        <v>548</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -9207,7 +9219,7 @@
         <v>27</v>
       </c>
       <c r="E398" s="6" t="s">
-        <v>442</v>
+        <v>549</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9224,7 +9236,7 @@
         <v>27</v>
       </c>
       <c r="E399" s="6" t="s">
-        <v>443</v>
+        <v>550</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9241,7 +9253,7 @@
         <v>27</v>
       </c>
       <c r="E400" s="6" t="s">
-        <v>444</v>
+        <v>551</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -9258,7 +9270,7 @@
         <v>27</v>
       </c>
       <c r="E401" s="6" t="s">
-        <v>445</v>
+        <v>552</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -9275,7 +9287,7 @@
         <v>27</v>
       </c>
       <c r="E402" s="6" t="s">
-        <v>446</v>
+        <v>553</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -9292,7 +9304,7 @@
         <v>27</v>
       </c>
       <c r="E403" s="6" t="s">
-        <v>447</v>
+        <v>554</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -9309,7 +9321,7 @@
         <v>27</v>
       </c>
       <c r="E404" s="6" t="s">
-        <v>448</v>
+        <v>555</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -9326,7 +9338,7 @@
         <v>27</v>
       </c>
       <c r="E405" s="6" t="s">
-        <v>449</v>
+        <v>556</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -9343,7 +9355,7 @@
         <v>27</v>
       </c>
       <c r="E406" s="6" t="s">
-        <v>450</v>
+        <v>557</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -9360,7 +9372,7 @@
         <v>27</v>
       </c>
       <c r="E407" s="6" t="s">
-        <v>451</v>
+        <v>558</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -9377,7 +9389,7 @@
         <v>27</v>
       </c>
       <c r="E408" s="6" t="s">
-        <v>452</v>
+        <v>559</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -9394,7 +9406,7 @@
         <v>27</v>
       </c>
       <c r="E409" s="6" t="s">
-        <v>453</v>
+        <v>560</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -9411,7 +9423,7 @@
         <v>32</v>
       </c>
       <c r="E410" s="6" t="s">
-        <v>448</v>
+        <v>561</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -9428,7 +9440,7 @@
         <v>32</v>
       </c>
       <c r="E411" s="6" t="s">
-        <v>454</v>
+        <v>562</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -9445,7 +9457,7 @@
         <v>32</v>
       </c>
       <c r="E412" s="6" t="s">
-        <v>455</v>
+        <v>563</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -9462,7 +9474,7 @@
         <v>32</v>
       </c>
       <c r="E413" s="6" t="s">
-        <v>456</v>
+        <v>564</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -9479,7 +9491,7 @@
         <v>32</v>
       </c>
       <c r="E414" s="6" t="s">
-        <v>457</v>
+        <v>565</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -9496,7 +9508,7 @@
         <v>32</v>
       </c>
       <c r="E415" s="6" t="s">
-        <v>458</v>
+        <v>566</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -9513,7 +9525,7 @@
         <v>32</v>
       </c>
       <c r="E416" s="6" t="s">
-        <v>418</v>
+        <v>567</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -9530,7 +9542,7 @@
         <v>32</v>
       </c>
       <c r="E417" s="6" t="s">
-        <v>459</v>
+        <v>568</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -9547,7 +9559,7 @@
         <v>32</v>
       </c>
       <c r="E418" s="6" t="s">
-        <v>460</v>
+        <v>569</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -9564,7 +9576,7 @@
         <v>32</v>
       </c>
       <c r="E419" s="6" t="s">
-        <v>461</v>
+        <v>570</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -9581,7 +9593,7 @@
         <v>32</v>
       </c>
       <c r="E420" s="6" t="s">
-        <v>462</v>
+        <v>571</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -9598,7 +9610,7 @@
         <v>32</v>
       </c>
       <c r="E421" s="6" t="s">
-        <v>463</v>
+        <v>572</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -9615,7 +9627,7 @@
         <v>32</v>
       </c>
       <c r="E422" s="6" t="s">
-        <v>464</v>
+        <v>573</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -9632,7 +9644,7 @@
         <v>32</v>
       </c>
       <c r="E423" s="6" t="s">
-        <v>465</v>
+        <v>401</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -9649,7 +9661,7 @@
         <v>32</v>
       </c>
       <c r="E424" s="6" t="s">
-        <v>466</v>
+        <v>574</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -9666,7 +9678,7 @@
         <v>32</v>
       </c>
       <c r="E425" s="6" t="s">
-        <v>467</v>
+        <v>575</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -9683,7 +9695,7 @@
         <v>32</v>
       </c>
       <c r="E426" s="6" t="s">
-        <v>468</v>
+        <v>576</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -9700,7 +9712,7 @@
         <v>32</v>
       </c>
       <c r="E427" s="6" t="s">
-        <v>469</v>
+        <v>577</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -9717,7 +9729,7 @@
         <v>27</v>
       </c>
       <c r="E428" s="6" t="s">
-        <v>480</v>
+        <v>578</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -9734,7 +9746,7 @@
         <v>27</v>
       </c>
       <c r="E429" s="6" t="s">
-        <v>470</v>
+        <v>579</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -9751,7 +9763,7 @@
         <v>27</v>
       </c>
       <c r="E430" s="6" t="s">
-        <v>471</v>
+        <v>580</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -9764,11 +9776,11 @@
       <c r="C431" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D431" s="9" t="s">
-        <v>27</v>
+      <c r="D431" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E431" s="6" t="s">
-        <v>472</v>
+        <v>581</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -9781,11 +9793,11 @@
       <c r="C432" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D432" s="9" t="s">
-        <v>27</v>
+      <c r="D432" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E432" s="6" t="s">
-        <v>473</v>
+        <v>582</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -9802,7 +9814,7 @@
         <v>27</v>
       </c>
       <c r="E433" s="6" t="s">
-        <v>474</v>
+        <v>583</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -9815,11 +9827,11 @@
       <c r="C434" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D434" s="9" t="s">
-        <v>27</v>
+      <c r="D434" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E434" s="6" t="s">
-        <v>475</v>
+        <v>584</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -9832,11 +9844,11 @@
       <c r="C435" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D435" s="9" t="s">
-        <v>27</v>
+      <c r="D435" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E435" s="6" t="s">
-        <v>476</v>
+        <v>585</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -9853,7 +9865,7 @@
         <v>27</v>
       </c>
       <c r="E436" s="6" t="s">
-        <v>477</v>
+        <v>586</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -9870,7 +9882,7 @@
         <v>27</v>
       </c>
       <c r="E437" s="6" t="s">
-        <v>478</v>
+        <v>587</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -9887,7 +9899,7 @@
         <v>27</v>
       </c>
       <c r="E438" s="6" t="s">
-        <v>479</v>
+        <v>588</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -9904,7 +9916,7 @@
         <v>28</v>
       </c>
       <c r="E439" s="6" t="s">
-        <v>481</v>
+        <v>589</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -9921,7 +9933,7 @@
         <v>28</v>
       </c>
       <c r="E440" s="6" t="s">
-        <v>482</v>
+        <v>590</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -9935,10 +9947,10 @@
         <v>17</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E441" s="6" t="s">
-        <v>483</v>
+        <v>591</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -9952,10 +9964,10 @@
         <v>17</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E442" s="6" t="s">
-        <v>484</v>
+        <v>592</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -9969,10 +9981,10 @@
         <v>17</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E443" s="6" t="s">
-        <v>485</v>
+        <v>402</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -9986,10 +9998,10 @@
         <v>17</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E444" s="6" t="s">
-        <v>486</v>
+        <v>593</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10006,7 +10018,7 @@
         <v>28</v>
       </c>
       <c r="E445" s="6" t="s">
-        <v>487</v>
+        <v>594</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10023,7 +10035,7 @@
         <v>28</v>
       </c>
       <c r="E446" s="6" t="s">
-        <v>488</v>
+        <v>595</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10040,7 +10052,7 @@
         <v>28</v>
       </c>
       <c r="E447" s="6" t="s">
-        <v>489</v>
+        <v>596</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10057,7 +10069,7 @@
         <v>28</v>
       </c>
       <c r="E448" s="6" t="s">
-        <v>490</v>
+        <v>597</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -10074,7 +10086,7 @@
         <v>28</v>
       </c>
       <c r="E449" s="6" t="s">
-        <v>491</v>
+        <v>598</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10091,7 +10103,7 @@
         <v>32</v>
       </c>
       <c r="E450" s="6" t="s">
-        <v>492</v>
+        <v>403</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10108,7 +10120,7 @@
         <v>32</v>
       </c>
       <c r="E451" s="6" t="s">
-        <v>493</v>
+        <v>404</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10125,7 +10137,7 @@
         <v>32</v>
       </c>
       <c r="E452" s="6" t="s">
-        <v>494</v>
+        <v>405</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -10142,7 +10154,7 @@
         <v>32</v>
       </c>
       <c r="E453" s="6" t="s">
-        <v>495</v>
+        <v>406</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -10159,7 +10171,7 @@
         <v>32</v>
       </c>
       <c r="E454" s="6" t="s">
-        <v>496</v>
+        <v>407</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -10176,7 +10188,7 @@
         <v>32</v>
       </c>
       <c r="E455" s="6" t="s">
-        <v>497</v>
+        <v>408</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -10193,7 +10205,7 @@
         <v>32</v>
       </c>
       <c r="E456" s="6" t="s">
-        <v>498</v>
+        <v>599</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -10210,7 +10222,7 @@
         <v>32</v>
       </c>
       <c r="E457" s="6" t="s">
-        <v>499</v>
+        <v>600</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -10227,7 +10239,7 @@
         <v>32</v>
       </c>
       <c r="E458" s="6" t="s">
-        <v>500</v>
+        <v>601</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -10244,7 +10256,7 @@
         <v>32</v>
       </c>
       <c r="E459" s="6" t="s">
-        <v>501</v>
+        <v>602</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -10261,7 +10273,7 @@
         <v>32</v>
       </c>
       <c r="E460" s="6" t="s">
-        <v>502</v>
+        <v>603</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -10278,7 +10290,7 @@
         <v>31</v>
       </c>
       <c r="E461" s="6" t="s">
-        <v>503</v>
+        <v>409</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -10295,7 +10307,7 @@
         <v>31</v>
       </c>
       <c r="E462" s="6" t="s">
-        <v>504</v>
+        <v>604</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -10312,7 +10324,7 @@
         <v>31</v>
       </c>
       <c r="E463" s="6" t="s">
-        <v>505</v>
+        <v>605</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -10329,7 +10341,7 @@
         <v>31</v>
       </c>
       <c r="E464" s="6" t="s">
-        <v>506</v>
+        <v>410</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -10346,7 +10358,7 @@
         <v>31</v>
       </c>
       <c r="E465" s="6" t="s">
-        <v>507</v>
+        <v>411</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -10363,7 +10375,7 @@
         <v>31</v>
       </c>
       <c r="E466" s="6" t="s">
-        <v>508</v>
+        <v>606</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -10380,7 +10392,7 @@
         <v>31</v>
       </c>
       <c r="E467" s="6" t="s">
-        <v>509</v>
+        <v>607</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -10397,7 +10409,7 @@
         <v>31</v>
       </c>
       <c r="E468" s="6" t="s">
-        <v>510</v>
+        <v>608</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -10414,7 +10426,7 @@
         <v>31</v>
       </c>
       <c r="E469" s="6" t="s">
-        <v>511</v>
+        <v>609</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -10431,7 +10443,7 @@
         <v>31</v>
       </c>
       <c r="E470" s="6" t="s">
-        <v>512</v>
+        <v>610</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -10448,7 +10460,7 @@
         <v>31</v>
       </c>
       <c r="E471" s="6" t="s">
-        <v>513</v>
+        <v>611</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -10465,7 +10477,7 @@
         <v>32</v>
       </c>
       <c r="E472" s="6" t="s">
-        <v>570</v>
+        <v>468</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -10482,7 +10494,7 @@
         <v>32</v>
       </c>
       <c r="E473" s="6" t="s">
-        <v>571</v>
+        <v>469</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -10499,7 +10511,7 @@
         <v>32</v>
       </c>
       <c r="E474" s="6" t="s">
-        <v>572</v>
+        <v>470</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -10516,7 +10528,7 @@
         <v>32</v>
       </c>
       <c r="E475" s="6" t="s">
-        <v>573</v>
+        <v>471</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -10533,7 +10545,7 @@
         <v>32</v>
       </c>
       <c r="E476" s="6" t="s">
-        <v>574</v>
+        <v>472</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -10550,7 +10562,7 @@
         <v>32</v>
       </c>
       <c r="E477" s="6" t="s">
-        <v>575</v>
+        <v>473</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -10567,7 +10579,7 @@
         <v>32</v>
       </c>
       <c r="E478" s="6" t="s">
-        <v>576</v>
+        <v>474</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -10584,7 +10596,7 @@
         <v>32</v>
       </c>
       <c r="E479" s="6" t="s">
-        <v>577</v>
+        <v>475</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -10601,7 +10613,7 @@
         <v>32</v>
       </c>
       <c r="E480" s="6" t="s">
-        <v>578</v>
+        <v>476</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -10618,7 +10630,7 @@
         <v>32</v>
       </c>
       <c r="E481" s="6" t="s">
-        <v>579</v>
+        <v>477</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -10635,7 +10647,7 @@
         <v>32</v>
       </c>
       <c r="E482" s="6" t="s">
-        <v>580</v>
+        <v>478</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -10652,7 +10664,7 @@
         <v>31</v>
       </c>
       <c r="E483" s="6" t="s">
-        <v>581</v>
+        <v>479</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -10669,7 +10681,7 @@
         <v>31</v>
       </c>
       <c r="E484" s="6" t="s">
-        <v>582</v>
+        <v>480</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -10686,7 +10698,7 @@
         <v>28</v>
       </c>
       <c r="E485" s="6" t="s">
-        <v>583</v>
+        <v>481</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -10703,7 +10715,7 @@
         <v>28</v>
       </c>
       <c r="E486" s="6" t="s">
-        <v>584</v>
+        <v>482</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -10720,7 +10732,7 @@
         <v>28</v>
       </c>
       <c r="E487" s="6" t="s">
-        <v>585</v>
+        <v>483</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -10737,7 +10749,7 @@
         <v>28</v>
       </c>
       <c r="E488" s="6" t="s">
-        <v>586</v>
+        <v>484</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -10754,7 +10766,7 @@
         <v>28</v>
       </c>
       <c r="E489" s="6" t="s">
-        <v>587</v>
+        <v>485</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -10771,7 +10783,7 @@
         <v>28</v>
       </c>
       <c r="E490" s="6" t="s">
-        <v>588</v>
+        <v>486</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -10788,7 +10800,7 @@
         <v>28</v>
       </c>
       <c r="E491" s="6" t="s">
-        <v>589</v>
+        <v>487</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -10805,7 +10817,7 @@
         <v>28</v>
       </c>
       <c r="E492" s="6" t="s">
-        <v>590</v>
+        <v>488</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -10822,7 +10834,7 @@
         <v>28</v>
       </c>
       <c r="E493" s="6" t="s">
-        <v>591</v>
+        <v>489</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -10839,7 +10851,7 @@
         <v>28</v>
       </c>
       <c r="E494" s="6" t="s">
-        <v>592</v>
+        <v>490</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -10856,7 +10868,7 @@
         <v>28</v>
       </c>
       <c r="E495" s="6" t="s">
-        <v>593</v>
+        <v>491</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -10873,7 +10885,7 @@
         <v>27</v>
       </c>
       <c r="E496" s="6" t="s">
-        <v>594</v>
+        <v>492</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -10890,7 +10902,7 @@
         <v>27</v>
       </c>
       <c r="E497" s="6" t="s">
-        <v>595</v>
+        <v>493</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -10907,7 +10919,7 @@
         <v>27</v>
       </c>
       <c r="E498" s="6" t="s">
-        <v>596</v>
+        <v>494</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -10924,7 +10936,7 @@
         <v>27</v>
       </c>
       <c r="E499" s="6" t="s">
-        <v>597</v>
+        <v>495</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -10941,7 +10953,7 @@
         <v>27</v>
       </c>
       <c r="E500" s="6" t="s">
-        <v>598</v>
+        <v>496</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -10958,7 +10970,7 @@
         <v>27</v>
       </c>
       <c r="E501" s="6" t="s">
-        <v>599</v>
+        <v>497</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -10975,7 +10987,7 @@
         <v>27</v>
       </c>
       <c r="E502" s="6" t="s">
-        <v>600</v>
+        <v>498</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -10992,7 +11004,7 @@
         <v>27</v>
       </c>
       <c r="E503" s="6" t="s">
-        <v>588</v>
+        <v>486</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11009,7 +11021,7 @@
         <v>27</v>
       </c>
       <c r="E504" s="6" t="s">
-        <v>601</v>
+        <v>499</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -11023,10 +11035,10 @@
         <v>17</v>
       </c>
       <c r="D505" s="6" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="E505" s="6" t="s">
-        <v>525</v>
+        <v>423</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11040,10 +11052,10 @@
         <v>17</v>
       </c>
       <c r="D506" s="6" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="E506" s="6" t="s">
-        <v>526</v>
+        <v>424</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11057,10 +11069,10 @@
         <v>17</v>
       </c>
       <c r="D507" s="6" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="E507" s="6" t="s">
-        <v>527</v>
+        <v>425</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -11074,10 +11086,10 @@
         <v>17</v>
       </c>
       <c r="D508" s="6" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="E508" s="6" t="s">
-        <v>528</v>
+        <v>426</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11091,10 +11103,10 @@
         <v>17</v>
       </c>
       <c r="D509" s="6" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="E509" s="6" t="s">
-        <v>529</v>
+        <v>427</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -11108,10 +11120,10 @@
         <v>17</v>
       </c>
       <c r="D510" s="6" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="E510" s="6" t="s">
-        <v>530</v>
+        <v>428</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11125,10 +11137,10 @@
         <v>17</v>
       </c>
       <c r="D511" s="6" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="E511" s="6" t="s">
-        <v>531</v>
+        <v>429</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -11142,10 +11154,10 @@
         <v>17</v>
       </c>
       <c r="D512" s="6" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="E512" s="6" t="s">
-        <v>533</v>
+        <v>431</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -11159,10 +11171,10 @@
         <v>17</v>
       </c>
       <c r="D513" s="6" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="E513" s="6" t="s">
-        <v>534</v>
+        <v>432</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -11176,10 +11188,10 @@
         <v>17</v>
       </c>
       <c r="D514" s="6" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="E514" s="6" t="s">
-        <v>535</v>
+        <v>433</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -11193,10 +11205,10 @@
         <v>17</v>
       </c>
       <c r="D515" s="6" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="E515" s="6" t="s">
-        <v>536</v>
+        <v>434</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -11210,10 +11222,10 @@
         <v>17</v>
       </c>
       <c r="D516" s="6" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="E516" s="6" t="s">
-        <v>537</v>
+        <v>435</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -11227,10 +11239,10 @@
         <v>17</v>
       </c>
       <c r="D517" s="6" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="E517" s="6" t="s">
-        <v>538</v>
+        <v>436</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -11244,10 +11256,10 @@
         <v>17</v>
       </c>
       <c r="D518" s="6" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="E518" s="6" t="s">
-        <v>539</v>
+        <v>437</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -11261,10 +11273,10 @@
         <v>17</v>
       </c>
       <c r="D519" s="6" t="s">
-        <v>540</v>
+        <v>438</v>
       </c>
       <c r="E519" s="6" t="s">
-        <v>541</v>
+        <v>439</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -11278,10 +11290,10 @@
         <v>17</v>
       </c>
       <c r="D520" s="6" t="s">
-        <v>540</v>
+        <v>438</v>
       </c>
       <c r="E520" s="6" t="s">
-        <v>542</v>
+        <v>440</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -11295,10 +11307,10 @@
         <v>17</v>
       </c>
       <c r="D521" s="6" t="s">
-        <v>540</v>
+        <v>438</v>
       </c>
       <c r="E521" s="6" t="s">
-        <v>543</v>
+        <v>441</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -11312,10 +11324,10 @@
         <v>17</v>
       </c>
       <c r="D522" s="6" t="s">
-        <v>540</v>
+        <v>438</v>
       </c>
       <c r="E522" s="6" t="s">
-        <v>544</v>
+        <v>442</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -11329,10 +11341,10 @@
         <v>17</v>
       </c>
       <c r="D523" s="6" t="s">
-        <v>545</v>
+        <v>443</v>
       </c>
       <c r="E523" s="6" t="s">
-        <v>546</v>
+        <v>444</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -11346,10 +11358,10 @@
         <v>17</v>
       </c>
       <c r="D524" s="6" t="s">
-        <v>545</v>
+        <v>443</v>
       </c>
       <c r="E524" s="6" t="s">
-        <v>547</v>
+        <v>445</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -11363,10 +11375,10 @@
         <v>17</v>
       </c>
       <c r="D525" s="6" t="s">
-        <v>545</v>
+        <v>443</v>
       </c>
       <c r="E525" s="6" t="s">
-        <v>548</v>
+        <v>446</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -11380,10 +11392,10 @@
         <v>17</v>
       </c>
       <c r="D526" s="6" t="s">
-        <v>545</v>
+        <v>443</v>
       </c>
       <c r="E526" s="6" t="s">
-        <v>549</v>
+        <v>447</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -11397,10 +11409,10 @@
         <v>17</v>
       </c>
       <c r="D527" s="6" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="E527" s="6" t="s">
-        <v>550</v>
+        <v>448</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -11414,10 +11426,10 @@
         <v>17</v>
       </c>
       <c r="D528" s="6" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="E528" s="6" t="s">
-        <v>551</v>
+        <v>449</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -11431,10 +11443,10 @@
         <v>17</v>
       </c>
       <c r="D529" s="6" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="E529" s="6" t="s">
-        <v>552</v>
+        <v>450</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -11448,10 +11460,10 @@
         <v>17</v>
       </c>
       <c r="D530" s="6" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="E530" s="6" t="s">
-        <v>553</v>
+        <v>451</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -11465,10 +11477,10 @@
         <v>17</v>
       </c>
       <c r="D531" s="6" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="E531" s="6" t="s">
-        <v>554</v>
+        <v>452</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -11482,10 +11494,10 @@
         <v>17</v>
       </c>
       <c r="D532" s="6" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="E532" s="6" t="s">
-        <v>555</v>
+        <v>453</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -11499,10 +11511,10 @@
         <v>17</v>
       </c>
       <c r="D533" s="6" t="s">
-        <v>524</v>
+        <v>422</v>
       </c>
       <c r="E533" s="6" t="s">
-        <v>556</v>
+        <v>454</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -11516,10 +11528,10 @@
         <v>17</v>
       </c>
       <c r="D534" s="6" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="E534" s="6" t="s">
-        <v>557</v>
+        <v>455</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -11533,10 +11545,10 @@
         <v>17</v>
       </c>
       <c r="D535" s="6" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="E535" s="6" t="s">
-        <v>558</v>
+        <v>456</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -11550,10 +11562,10 @@
         <v>17</v>
       </c>
       <c r="D536" s="6" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="E536" s="6" t="s">
-        <v>559</v>
+        <v>457</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -11567,10 +11579,10 @@
         <v>17</v>
       </c>
       <c r="D537" s="6" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="E537" s="6" t="s">
-        <v>560</v>
+        <v>458</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -11584,10 +11596,10 @@
         <v>17</v>
       </c>
       <c r="D538" s="6" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="E538" s="6" t="s">
-        <v>561</v>
+        <v>459</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -11601,10 +11613,10 @@
         <v>17</v>
       </c>
       <c r="D539" s="6" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="E539" s="6" t="s">
-        <v>562</v>
+        <v>460</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -11618,10 +11630,10 @@
         <v>17</v>
       </c>
       <c r="D540" s="6" t="s">
-        <v>532</v>
+        <v>430</v>
       </c>
       <c r="E540" s="6" t="s">
-        <v>563</v>
+        <v>461</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -11635,10 +11647,10 @@
         <v>17</v>
       </c>
       <c r="D541" s="6" t="s">
-        <v>540</v>
+        <v>438</v>
       </c>
       <c r="E541" s="6" t="s">
-        <v>564</v>
+        <v>462</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -11652,10 +11664,10 @@
         <v>17</v>
       </c>
       <c r="D542" s="6" t="s">
-        <v>540</v>
+        <v>438</v>
       </c>
       <c r="E542" s="6" t="s">
-        <v>565</v>
+        <v>463</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -11669,10 +11681,10 @@
         <v>17</v>
       </c>
       <c r="D543" s="6" t="s">
-        <v>540</v>
+        <v>438</v>
       </c>
       <c r="E543" s="6" t="s">
-        <v>566</v>
+        <v>464</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -11686,10 +11698,10 @@
         <v>17</v>
       </c>
       <c r="D544" s="6" t="s">
-        <v>545</v>
+        <v>443</v>
       </c>
       <c r="E544" s="6" t="s">
-        <v>567</v>
+        <v>465</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -11703,10 +11715,10 @@
         <v>17</v>
       </c>
       <c r="D545" s="6" t="s">
-        <v>545</v>
+        <v>443</v>
       </c>
       <c r="E545" s="6" t="s">
-        <v>568</v>
+        <v>466</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -11720,10 +11732,10 @@
         <v>17</v>
       </c>
       <c r="D546" s="6" t="s">
-        <v>545</v>
+        <v>443</v>
       </c>
       <c r="E546" s="6" t="s">
-        <v>569</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
